--- a/test-data/spreadsheet/resize_compare.xlsx
+++ b/test-data/spreadsheet/resize_compare.xlsx
@@ -158,7 +158,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>252000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
